--- a/交流管理/项目日报/每日要做的事-黄旭.xlsx
+++ b/交流管理/项目日报/每日要做的事-黄旭.xlsx
@@ -157,9 +157,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,7 +465,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -501,6 +502,9 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
@@ -508,6 +512,9 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">

--- a/交流管理/项目日报/每日要做的事-黄旭.xlsx
+++ b/交流管理/项目日报/每日要做的事-黄旭.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>solr项目实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solr属性熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solr与数据库链接测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -533,7 +545,23 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/每日要做的事-黄旭.xlsx
+++ b/交流管理/项目日报/每日要做的事-黄旭.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,19 +98,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>solr属性熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solr与数据库链接测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>solr项目实例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>solr属性熟悉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>solr与数据库链接测试</t>
+    <t>solr放入实际项目中搭建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划1-2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/9/23-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activiti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划3天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -537,31 +565,90 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>42998</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+      <c r="D6" s="2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
+      <c r="D7" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>42998</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>42999</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>43000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
